--- a/data/proveedor/drimel/listos/tiendaNube/drimel.xlsx
+++ b/data/proveedor/drimel/listos/tiendaNube/drimel.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
@@ -461,17 +461,801 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>HUGGIES-PROTECT-REG-Px8</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>546</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>612</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>UPA-TOALLAS-HUMEDASx100</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>298</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>CANDY-TOALLAS-HUMEDASx70</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-MEGA-Px30</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1326</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>KIMBIES-TOALLAS-HUMEDASx48</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>328</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx48</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>435</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
           <t>HUGGIES-TOALLA-PUROx48</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>887</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>993</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>8</v>
+      <c r="B8" s="2" t="n">
+        <v>932</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1044</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-REG-Gx8</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>498</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>558</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-REG-XGx8</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>498</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>558</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-REG-XXGx8</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>498</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>558</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-REG-Mx8</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>498</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>558</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx80</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>582</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>652</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-Px30</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1215</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-RNx34</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-Px30</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-Px50</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1694</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1897</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-OLEO-RNx80</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1131</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1267</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Px50</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>2494</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>2793</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-RNx34</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>2223</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2490</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Px30</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2223</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2490</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-PREMATUROSx30</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1693</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Px17</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1389</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-RNx17</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1389</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-RNx17</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>968</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1084</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-FROZENx48</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>463</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>519</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-4en1-x80</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>760</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>851</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-Px50</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2203</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-OLEO-RNx48</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>745</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>834</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-REGULAR-XXGx8</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>682</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>764</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-REGULAR-Gx9</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>682</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>764</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-REGULAR-XGx8</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>682</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>764</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx96</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>684</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>766</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-XXGx8</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>429</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Mx8</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>429</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Px12</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>429</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Gx8</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>429</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>429</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-REG-XXGx8</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>508</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-REG-Gx8</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>508</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-REG-Mx8</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>508</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-REG-Px8</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>508</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-4en1-x48</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>542</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>607</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-JABON-SUAVE-x75</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-Gx60</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>3176</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>3557</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-XGx48</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>3176</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>3557</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-XXGx44</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>3176</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>3557</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-Mx48</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>2182</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>2444</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-XXGx30</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>2182</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>2444</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-XGx32</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>2182</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>2444</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-Gx40</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>2182</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>2444</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/proveedor/drimel/listos/tiendaNube/drimel.xlsx
+++ b/data/proveedor/drimel/listos/tiendaNube/drimel.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
@@ -461,96 +461,16 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-TOALLAS-HUMEDAS-RELAJANTEx50</t>
+          <t>PAMPERS-PANTS-PC-MES-Gx64</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>487</v>
+        <v>5201</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>545</v>
+        <v>5825</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS-TOTAL-PROTECT-Mx54</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>2070</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>2318</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS-CONFORT-XTR-REG-XXGx8</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>536</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS-SUPER-XTR-ULTRA-XGx32</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>1777</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS-CONFORT-XTR-MES-Mx72</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>4195</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>4698</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS-SUPER-XTR-REG-XXGx8</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>501</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>561</v>
-      </c>
-      <c r="D7" s="2" t="n">
         <v>5</v>
       </c>
     </row>

--- a/data/proveedor/drimel/listos/tiendaNube/drimel.xlsx
+++ b/data/proveedor/drimel/listos/tiendaNube/drimel.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
@@ -461,17 +461,257 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>PAMPERS-PREMIUM-MES-HP-XGx58</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>4895</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>5482</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Gx8</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>451</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>505</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Mx8</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>451</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>505</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-XXGx8</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>451</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>505</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Px12</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>451</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>505</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>451</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>505</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PREMIUM-XTR-RN-x36</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2184</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
           <t>PAMPERS-PANTS-PC-MES-Gx64</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B9" s="2" t="n">
         <v>5201</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C9" s="2" t="n">
         <v>5825</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>5</v>
+      <c r="D9" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-CONFORT-XTR-MES-XXGx54</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>4405</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>4934</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PREMIUM-XTR-MES-XXGx54</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>4895</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>5482</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-CONFORT-XTR-HIPER-Px56</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>2501</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2801</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-SUPER-XTR-REG-Gx9</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>526</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-XGx48</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>3357</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>3760</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-XXGx44</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>3357</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>3760</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-Gx60</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>3357</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>3760</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-TOTAL-PROTECT-XXGx34</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2110</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>2363</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/proveedor/drimel/listos/tiendaNube/drimel.xlsx
+++ b/data/proveedor/drimel/listos/tiendaNube/drimel.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
@@ -461,257 +461,2481 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-MES-HP-XGx58</t>
+          <t>BABYSEC-PREMIUM-TRI-PACK-Px30</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4895</v>
+        <v>1194</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5482</v>
+        <v>1337</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-Gx8</t>
+          <t>HUGGIES-PROTECT-REG-XGx8</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>451</v>
+        <v>691</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>505</v>
+        <v>774</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-Mx8</t>
+          <t>HUGGIES-CLASSIC-REG-Px8</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>451</v>
+        <v>691</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>505</v>
+        <v>774</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-XXGx8</t>
+          <t>HUGGIES-PROTECT-REG-Px8</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>451</v>
+        <v>691</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>505</v>
+        <v>774</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-Px12</t>
+          <t>HUGGIES-CLASSIC-REG-Gx8</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>451</v>
+        <v>691</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>505</v>
+        <v>774</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
+          <t>HUGGIES-CLASSIC-REG-Mx8</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>451</v>
+        <v>691</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>505</v>
+        <v>774</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-XTR-RN-x36</t>
+          <t>HUGGIES-PROTECT-REG-Mx8</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1950</v>
+        <v>691</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2184</v>
+        <v>774</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-PC-MES-Gx64</t>
+          <t>HUGGIES-CLASSIC-REG-XXGx8</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>5201</v>
+        <v>691</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5825</v>
+        <v>774</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-MES-XXGx54</t>
+          <t>HUGGIES-PROTECT-REG-Gx8</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>4405</v>
+        <v>691</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>4934</v>
+        <v>774</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-XTR-MES-XXGx54</t>
+          <t>HUGGIES-PROTECT-REG-XXGx8</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>4895</v>
+        <v>691</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>5482</v>
+        <v>774</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-HIPER-Px56</t>
+          <t>DUFFY-PA-AL-AHORRO-XGx44</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2501</v>
+        <v>2952</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>2801</v>
+        <v>3306</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-REG-Gx9</t>
+          <t>DUFFY-PA-AL-AHORRO-XXGx42</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>526</v>
+        <v>2952</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>589</v>
+        <v>3306</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-JUMBO-XGx48</t>
+          <t>DUFFY-PA-AL-AHORRO-Mx52</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>3357</v>
+        <v>2952</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>3760</v>
+        <v>3306</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-JUMBO-XXGx44</t>
+          <t>DUFFY-PA-AL-AHORRO-Gx48</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>3357</v>
+        <v>2952</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>3760</v>
+        <v>3306</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-JUMBO-Gx60</t>
+          <t>DUFFY-PA-AL-HIPER-Px44</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3357</v>
+        <v>2110</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3760</v>
+        <v>2363</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
+          <t>DUFFY-PA-AL-PREMIUM-Mx52</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2901</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>3249</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>DUFFY-PA-AL-PREMIUM-Gx36</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2901</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>3249</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>DUFFY-PA-AL-PREMIUM-XGx32</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>2901</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>3249</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>DUFFY-PA-AL-COTTON-XXGx26</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1824</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2043</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>DUFFY-PA-AL-COTTON-Gx32</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1824</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2043</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>DUFFY-PA-AL-COTTON-XGx28</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1824</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>2043</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>DUFFY-PA-AL-COTTON-Mx38</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1824</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>2043</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PREMIUM-XTR-MES-Gx72</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>5630</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>6306</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-CONFORT-XTR-HIPER-Mx52</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>3547</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>3973</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>deyse-oleo-calcareox250</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>396</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>DONCELLA-HISOPOSx100</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>490</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>549</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-HIPER-Vrom-XGx28</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2227</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-HIPER-Vrom-XXGx26</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>2227</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-HIPER-Vrom-Mx44</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>2227</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-HIPER-Vrom-Gx36</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>2227</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-Gx60</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3980</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>4458</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-XGx48</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>3980</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>4458</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-XXGx44</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>3980</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>4458</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-XXGx30</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>2735</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>3063</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-Gx40</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>2735</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>3063</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-Mx48</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>2735</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>3063</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-XGx32</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>2735</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>3063</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>SELEC-EST-HIPER-Mx44</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>2178</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>2439</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-JUMBO-Mx68</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>3383</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>3789</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-JUMBO-Gx60</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>3383</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>3789</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-JUMBO-XGx52</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>3383</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>3789</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-JUMBO-XXGx50</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>3383</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>3789</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-XXGx8</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>526</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>526</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Gx8</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>526</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Px12</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>526</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Mx8</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>526</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PREMIUM-XTR-RN-x36</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>2269</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>2541</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-JABON-BABY-GLICERINAx60</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-JABON-BABY-SUAVIDADx60</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-JABON-BABY-DUERME-FELIZx60</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-Gx60</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>4817</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>5395</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-AHORRO-XXGx50</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>4817</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>5395</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-AHORRO-XXXGx48</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>4817</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>5395</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-Mx68</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>4817</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>5395</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-XGx52</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>4817</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>5395</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>KIMBIES-TOALLAS-HUMEDASx48</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>444</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>497</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-JABON-SUAVE-x75</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>287</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-SUPER-XTR-REG-XGx8</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>606</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-SUPER-XTR-REG-Px12</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>606</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-SUPER-XTR-REG-Mx10</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>606</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-SUPER-XTR-REG-Gx9</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>606</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-SUPER-XTR-REG-XXGx8</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>606</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>huggies-toalla-frozenx48</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>668</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>748</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-CONFORT-XTR-REG-XXGx8</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>647</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>725</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-POMPONES-x50</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>538</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-ACONDICIONADOR-SUAVESx400</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>969</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-SHAMPOO-CLAROSx400</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>969</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx400</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>969</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-ACONDICIONADOR-CLAROSx400</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>969</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx200</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>701</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-SHAMPOO-EQULIBRIOx200</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>701</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-ACONDICIONADOR-SUAVESx200</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>701</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-OLEO-ALGODONx500</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>1123</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>1258</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>estrella-pa-os-maxi-algodonx50</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1164</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-MEGA-Px30</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>1666</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>1866</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx80</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>795</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>890</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Px50</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>3280</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>3674</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-PUROx48</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>1379</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>CARICIA-PANAL-XXGx22</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>1346</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>1508</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>estrella-oleo-aloe-250</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>849</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>951</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-OLEO-MANZANILLAx250</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>849</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>951</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx96</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>1122</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>UPA-TOALLAS-HUMEDASx100</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>306</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>343</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-PREMATUROSx30</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>2211</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-SUPER-Gx68</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>4675</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>5236</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-SUPER-JUNIORx50</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>4675</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>5236</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-SUPER-XGx58</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>4675</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>5236</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>pampers-confort-xtr-hiper-px56</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>2877</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>3222</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-AHORRO-XXGx50</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>4370</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>4894</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-AHORRO-Mx68</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>4370</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>4894</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-AHORRO-XGx52</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>4370</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>4894</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-AHORRO-XXXGx48</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>4370</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>4894</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-AHORRO-Gx60</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>4370</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>4894</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-4en1-x80</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>1243</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-RNx34</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>2243</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>2512</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-Px30</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>2243</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>2512</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PREMIUM-HIPER-XGx36</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>4594</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>5145</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Px17</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>1775</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-RNx17</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>1775</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-XXXG-x48</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>5782</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>6476</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-XGx52</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>5782</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>6476</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-XXGx50</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>5782</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>6476</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Mx68</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>5782</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>6476</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Gx60</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>5782</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>6476</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PANTS-PC-Mx34</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>3148</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PANTS-PC-Gx30</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>3148</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PANTS-PC-XGx26</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>2811</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>3148</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-Px50</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>2857</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>3200</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PREMIUM-XTR-MES-XXGx54</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>5630</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>6306</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PREMIUM-XTR-MES-XGx58</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>5630</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>6306</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PREMIUM-MES-HP-XGx58</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>5630</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>6306</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-SUPER-XTR-ULTRA-XGx32</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>2145</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>2402</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-CONFORT-XTR-HIPER-XXGx34</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>3547</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>3973</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-CONFORT-XTR-HIPER-XGx36</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>3547</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>3973</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-Px50</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>2490</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>2789</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>huggies-crema-protectorax80</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>2682</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>3004</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-CONFORT-XTR-MES-XXGx54</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>5066</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>5674</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-HIPER-XXGx34</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>3202</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-HIPER-Mx44</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>3202</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-HIPER-Gx40</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>3202</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-HIPER-XGx36</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>3202</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-AHORRO-Mx68</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>4216</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>4722</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-AHORRO-XXGx50</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>4216</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>4722</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-AHORRO-XGx52</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>4216</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>4722</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-AHORRO-Gx60</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>4216</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>4722</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-Px30</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>1855</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-MEGA-Px30</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>1855</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-CONFORT-XTR-JUMBO-Gx110</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>8105</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>9078</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PANTS-PC-MES-Gx64</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>5981</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>6699</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-OLEO-ALGODONx950</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>1871</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>2096</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PLUS-PROTECT-XGx32</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>3175</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>3556</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PLUS-PROTECT-Gx40</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>3175</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>3556</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Px30</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>2755</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>3086</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-RNx34</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>2755</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>3086</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx48</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>568</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>636</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-TOTAL-PROTECT-XGx36</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>2426</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>2717</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
           <t>PAMPERS-TOTAL-PROTECT-XXGx34</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>2110</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>2363</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
+      <c r="B139" s="2" t="n">
+        <v>2426</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>2717</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PREMIUM-XTR-RN-x56</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>3210</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>3595</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-HISOPOSx100</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>530</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>594</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PANTS-CS-HIPER-XGx34</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>3244</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>3633</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PANTS-CS-HIPER-Gx40</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>3244</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>3633</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-4en1-x48</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>792</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>887</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>estrella-hisopos-bolsax125</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>509</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>570</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>estrella-toallas-humedas-cuidado-x-50</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>656</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>735</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>estrella-toallas-humedas-sensiblex50</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>656</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>735</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-TOALLAS-HUMEDAS-RELAJANTEx50</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>656</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>735</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>SELEC-EST-HIPER-XXGx34</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>2178</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>2439</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>SELEC-EST-HIPER-Gx40</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>2178</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>2439</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>SELEC-EST-SUPER-XXGx56</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>3561</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>3988</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>SELEC-EST-SUPER-XGx58</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>3561</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>3988</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>SELEC-EST-SUPER-JUNIORx50</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>3561</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>3988</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-REGULAR-XGx8</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>779</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>872</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-REGULAR-Gx9</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>779</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>872</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-REGULAR-XXGx8</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>779</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>872</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
